--- a/orders.xlsx
+++ b/orders.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Orders" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -664,6 +664,286 @@
       <c r="O3" s="2" t="inlineStr"/>
       <c r="P3" s="2" t="inlineStr"/>
     </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>ORD202510060844051617</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>2025-10-06 08:44:05</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>LAPTOP</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>410</v>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>796694820003872</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr"/>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>[{"title": "Unnamed Product", "quantity": 1, "price": 410.0, "item_total": 410.0, "retailer_id": "esxr0rxyrk"}]</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr"/>
+      <c r="M4" s="2" t="inlineStr"/>
+      <c r="N4" s="2" t="inlineStr"/>
+      <c r="O4" s="2" t="inlineStr"/>
+      <c r="P4" s="2" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>ORD202510060858136319</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>2025-10-06 08:58:13</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>263718516319</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>~Di!@ne T~</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>REPAIR</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>796694820003872</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr"/>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>[{"title": "Unnamed Product", "quantity": 1, "price": 13.0, "item_total": 13.0, "retailer_id": "14bnrluwsq"}]</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr"/>
+      <c r="M5" s="2" t="inlineStr"/>
+      <c r="N5" s="2" t="inlineStr"/>
+      <c r="O5" s="2" t="inlineStr"/>
+      <c r="P5" s="2" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>ORD202510060859046319</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>2025-10-06 08:59:04</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>263718516319</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>~Di!@ne T~</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>REPAIR</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="H6" s="3" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>796694820003872</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr"/>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>[{"title": "Unnamed Product", "quantity": 1, "price": 48.0, "item_total": 48.0, "retailer_id": "0prz3sf8cv"}]</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr"/>
+      <c r="M6" s="2" t="inlineStr"/>
+      <c r="N6" s="2" t="inlineStr"/>
+      <c r="O6" s="2" t="inlineStr"/>
+      <c r="P6" s="2" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>ORD202510061214401617</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>2025-10-06 12:14:40</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>LAPTOP</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>385</v>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="H7" s="3" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>796694820003872</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr"/>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>[{"title": "Unnamed Product", "quantity": 1, "price": 385.0, "item_total": 385.0, "retailer_id": "i6s3jodpvd"}]</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr"/>
+      <c r="M7" s="2" t="inlineStr"/>
+      <c r="N7" s="2" t="inlineStr"/>
+      <c r="O7" s="2" t="inlineStr"/>
+      <c r="P7" s="2" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>ORD202510061704551617</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>2025-10-06 17:04:55</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>263776681617</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>Codeconel👨‍💻</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>LAPTOP</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>410</v>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="H8" s="3" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>796694820003872</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr"/>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>[{"title": "Unnamed Product", "quantity": 1, "price": 410.0, "item_total": 410.0, "retailer_id": "esxr0rxyrk"}]</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr"/>
+      <c r="M8" s="2" t="inlineStr"/>
+      <c r="N8" s="2" t="inlineStr"/>
+      <c r="O8" s="2" t="inlineStr"/>
+      <c r="P8" s="2" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
